--- a/raw_data/20200818_saline/20200818_Sensor1_Test_29.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_29.xlsx
@@ -1,2307 +1,2723 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763048D4-22B2-4F6B-B3C8-A688C7E609DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>25387.540154</v>
+        <v>25387.540153999998</v>
       </c>
       <c r="B2" s="1">
-        <v>7.052094</v>
+        <v>7.0520940000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>900.003000</v>
+        <v>900.00300000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.428000</v>
+        <v>-202.428</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>25398.380219</v>
+        <v>25398.380218999999</v>
       </c>
       <c r="G2" s="1">
-        <v>7.055106</v>
+        <v>7.0551060000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>917.402000</v>
+        <v>917.40200000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.579000</v>
+        <v>-170.57900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>25408.857741</v>
       </c>
       <c r="L2" s="1">
-        <v>7.058016</v>
+        <v>7.0580160000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>940.852000</v>
+        <v>940.85199999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.887000</v>
+        <v>-121.887</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>25419.064384</v>
+        <v>25419.064384000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.060851</v>
+        <v>7.0608510000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>947.451000</v>
+        <v>947.45100000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.024000</v>
+        <v>-105.024</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>25428.983388</v>
+        <v>25428.983388000001</v>
       </c>
       <c r="V2" s="1">
-        <v>7.063606</v>
+        <v>7.0636060000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>954.136000</v>
+        <v>954.13599999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.828400</v>
+        <v>-88.828400000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>25439.121109</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.066423</v>
+        <v>7.0664230000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.085000</v>
+        <v>961.08500000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.924300</v>
+        <v>-76.924300000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>25449.707255</v>
+        <v>25449.707255000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.069363</v>
+        <v>7.0693630000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.749000</v>
+        <v>965.74900000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.939000</v>
+        <v>-74.938999999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>25460.141065</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.072261</v>
+        <v>7.0722610000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.878000</v>
+        <v>972.87800000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.109500</v>
+        <v>-79.109499999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>25470.434045</v>
+        <v>25470.434045000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.075121</v>
+        <v>7.0751210000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.863000</v>
+        <v>980.86300000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.702800</v>
+        <v>-90.702799999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>25481.459152</v>
+        <v>25481.459151999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.078183</v>
+        <v>7.0781830000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.633000</v>
+        <v>990.63300000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.162000</v>
+        <v>-108.16200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>25492.629519</v>
+        <v>25492.629518999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.081286</v>
+        <v>7.0812860000000004</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.798000</v>
+        <v>998.798</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.625000</v>
+        <v>-123.625</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>25503.568320</v>
+        <v>25503.568319999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.084325</v>
+        <v>7.0843249999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.883000</v>
+        <v>-194.88300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>25514.840898</v>
+        <v>25514.840897999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.087456</v>
+        <v>7.0874560000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1103.170000</v>
+        <v>1103.17</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.758000</v>
+        <v>-310.75799999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>25527.049889</v>
+        <v>25527.049889000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.090847</v>
+        <v>7.0908470000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1210.480000</v>
+        <v>1210.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.463000</v>
+        <v>-493.46300000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>25537.770924</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.093825</v>
+        <v>7.0938249999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1331.190000</v>
+        <v>1331.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-693.776000</v>
+        <v>-693.77599999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>25548.435914</v>
+        <v>25548.435914000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.096788</v>
+        <v>7.0967880000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1466.400000</v>
+        <v>1466.4</v>
       </c>
       <c r="CA2" s="1">
-        <v>-907.706000</v>
+        <v>-907.70600000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>25559.409382</v>
+        <v>25559.409382000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.099836</v>
+        <v>7.0998359999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1820.440000</v>
+        <v>1820.44</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1415.710000</v>
+        <v>-1415.71</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>25388.234056</v>
+        <v>25388.234056000001</v>
       </c>
       <c r="B3" s="1">
-        <v>7.052287</v>
+        <v>7.0522869999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>900.024000</v>
+        <v>900.024</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.322000</v>
+        <v>-202.322</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>25398.731421</v>
       </c>
       <c r="G3" s="1">
-        <v>7.055203</v>
+        <v>7.0552029999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>917.589000</v>
+        <v>917.58900000000006</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.644000</v>
+        <v>-170.64400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>25409.241116</v>
+        <v>25409.241116000001</v>
       </c>
       <c r="L3" s="1">
-        <v>7.058123</v>
+        <v>7.0581230000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>940.764000</v>
+        <v>940.76400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.895000</v>
+        <v>-121.895</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>25419.445840</v>
+        <v>25419.44584</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.060957</v>
+        <v>7.0609570000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>947.423000</v>
+        <v>947.423</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.098000</v>
+        <v>-105.098</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>25429.405970</v>
+        <v>25429.40597</v>
       </c>
       <c r="V3" s="1">
-        <v>7.063724</v>
+        <v>7.0637239999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>954.176000</v>
+        <v>954.17600000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.872300</v>
+        <v>-88.872299999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>25439.539237</v>
+        <v>25439.539237000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.066539</v>
+        <v>7.0665389999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.013000</v>
+        <v>961.01300000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.058000</v>
+        <v>-77.058000000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>25450.109480</v>
+        <v>25450.109479999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.069475</v>
+        <v>7.0694749999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.724000</v>
+        <v>965.72400000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.944400</v>
+        <v>-74.944400000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>25460.249225</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.072291</v>
+        <v>7.0722909999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.876000</v>
+        <v>972.87599999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.132400</v>
+        <v>-79.132400000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>25470.813996</v>
+        <v>25470.813996000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.075226</v>
+        <v>7.0752259999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.876000</v>
+        <v>980.87599999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.720700</v>
+        <v>-90.720699999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>25481.829421</v>
+        <v>25481.829420999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.078286</v>
+        <v>7.0782860000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.183000</v>
+        <v>-108.18300000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>25493.032269</v>
+        <v>25493.032268999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.081398</v>
+        <v>7.0813980000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.796000</v>
+        <v>998.79600000000005</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.632000</v>
+        <v>-123.63200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>25504.300880</v>
+        <v>25504.300879999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.084528</v>
+        <v>7.0845279999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.140000</v>
+        <v>1037.1400000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.904000</v>
+        <v>-194.904</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>25515.602720</v>
+        <v>25515.602719999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.087667</v>
+        <v>7.0876669999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1103.210000</v>
+        <v>1103.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.740000</v>
+        <v>-310.74</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>25527.454128</v>
+        <v>25527.454128000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.090959</v>
+        <v>7.0909589999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1210.480000</v>
+        <v>1210.48</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.445000</v>
+        <v>-493.44499999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>25538.224494</v>
+        <v>25538.224493999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.093951</v>
+        <v>7.0939509999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>1331.220000</v>
+        <v>1331.22</v>
       </c>
       <c r="BV3" s="1">
-        <v>-693.714000</v>
+        <v>-693.71400000000006</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>25548.898692</v>
+        <v>25548.898691999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.096916</v>
+        <v>7.0969160000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1466.370000</v>
+        <v>1466.37</v>
       </c>
       <c r="CA3" s="1">
-        <v>-907.758000</v>
+        <v>-907.75800000000004</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>25560.301189</v>
+        <v>25560.301189000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.100084</v>
+        <v>7.1000839999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1821.100000</v>
+        <v>1821.1</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1414.340000</v>
+        <v>-1414.34</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>25388.631848</v>
+        <v>25388.631848000001</v>
       </c>
       <c r="B4" s="1">
-        <v>7.052398</v>
+        <v>7.0523980000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>899.871000</v>
+        <v>899.87099999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.300000</v>
+        <v>-202.3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>25399.076108</v>
+        <v>25399.076108000001</v>
       </c>
       <c r="G4" s="1">
-        <v>7.055299</v>
+        <v>7.0552989999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>917.284000</v>
+        <v>917.28399999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.762000</v>
+        <v>-170.762</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>25409.660237</v>
       </c>
       <c r="L4" s="1">
-        <v>7.058239</v>
+        <v>7.0582390000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>940.620000</v>
+        <v>940.62</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.816000</v>
+        <v>-121.816</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>25419.868399</v>
+        <v>25419.868398999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.061075</v>
+        <v>7.0610749999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>947.462000</v>
+        <v>947.46199999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.107000</v>
+        <v>-105.107</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>25429.731842</v>
+        <v>25429.731842000001</v>
       </c>
       <c r="V4" s="1">
-        <v>7.063814</v>
+        <v>7.0638139999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>954.228000</v>
+        <v>954.22799999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.863700</v>
+        <v>-88.863699999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>25439.881974</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.066634</v>
+        <v>7.0666339999999996</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.888000</v>
+        <v>960.88800000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.918400</v>
+        <v>-76.918400000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>25450.454236</v>
+        <v>25450.454236000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.069571</v>
+        <v>7.0695709999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.734000</v>
+        <v>965.73400000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.937900</v>
+        <v>-74.937899999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>25460.598194</v>
+        <v>25460.598193999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.072388</v>
+        <v>7.0723880000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.880000</v>
+        <v>972.88</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.117900</v>
+        <v>-79.117900000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>25471.175068</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.075326</v>
+        <v>7.0753259999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.860000</v>
+        <v>980.86</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.718200</v>
+        <v>-90.718199999999996</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>25482.193728</v>
+        <v>25482.193727999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.078387</v>
+        <v>7.0783870000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.628000</v>
+        <v>990.62800000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.171000</v>
+        <v>-108.17100000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>25493.751469</v>
+        <v>25493.751468999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.081598</v>
+        <v>7.0815979999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.827000</v>
+        <v>998.827</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.627000</v>
+        <v>-123.627</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>25504.662960</v>
+        <v>25504.662960000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.084629</v>
+        <v>7.0846289999999996</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.160000</v>
+        <v>1037.1600000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.903000</v>
+        <v>-194.90299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>25516.001008</v>
+        <v>25516.001007999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.087778</v>
+        <v>7.0877780000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1103.170000</v>
+        <v>1103.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.756000</v>
+        <v>-310.75599999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>25527.874239</v>
+        <v>25527.874239000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.091076</v>
+        <v>7.0910760000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1210.450000</v>
+        <v>1210.45</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.473000</v>
+        <v>-493.47300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>25538.941186</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.094150</v>
+        <v>7.09415</v>
       </c>
       <c r="BU4" s="1">
-        <v>1331.340000</v>
+        <v>1331.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-693.820000</v>
+        <v>-693.82</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>25549.653571</v>
+        <v>25549.653570999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.097126</v>
+        <v>7.0971260000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1466.450000</v>
+        <v>1466.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-907.761000</v>
+        <v>-907.76099999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>25560.538789</v>
+        <v>25560.538788999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.100150</v>
+        <v>7.1001500000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1821.020000</v>
+        <v>1821.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1414.270000</v>
+        <v>-1414.27</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>25389.024688</v>
+        <v>25389.024688000001</v>
       </c>
       <c r="B5" s="1">
-        <v>7.052507</v>
+        <v>7.0525070000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>899.960000</v>
+        <v>899.96</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.207000</v>
+        <v>-202.20699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>25399.502170</v>
+        <v>25399.50217</v>
       </c>
       <c r="G5" s="1">
-        <v>7.055417</v>
+        <v>7.0554170000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>917.082000</v>
+        <v>917.08199999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.760000</v>
+        <v>-170.76</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>25409.955853</v>
+        <v>25409.955852999999</v>
       </c>
       <c r="L5" s="1">
-        <v>7.058321</v>
+        <v>7.0583210000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>940.698000</v>
+        <v>940.69799999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.729000</v>
+        <v>-121.729</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>25420.168974</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.061158</v>
+        <v>7.0611579999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>947.456000</v>
+        <v>947.45600000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.120000</v>
+        <v>-105.12</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>25430.071106</v>
+        <v>25430.071105999999</v>
       </c>
       <c r="V5" s="1">
-        <v>7.063909</v>
+        <v>7.0639089999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>954.132000</v>
+        <v>954.13199999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.835200</v>
+        <v>-88.8352</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>25440.234165</v>
+        <v>25440.234165000002</v>
       </c>
       <c r="AA5" s="1">
         <v>7.066732</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.983000</v>
+        <v>960.98299999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.987300</v>
+        <v>-76.987300000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>25450.797431</v>
+        <v>25450.797430999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.069666</v>
+        <v>7.0696659999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.721000</v>
+        <v>965.721</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.962000</v>
+        <v>-74.962000000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>25460.946073</v>
+        <v>25460.946072999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.072485</v>
+        <v>7.0724850000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.828000</v>
+        <v>972.82799999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.120300</v>
+        <v>-79.1203</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>25471.903689</v>
+        <v>25471.903688999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.075529</v>
+        <v>7.0755290000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.867000</v>
+        <v>980.86699999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.732800</v>
+        <v>-90.732799999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>25482.941195</v>
+        <v>25482.941194999999</v>
       </c>
       <c r="AU5" s="1">
         <v>7.078595</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.623000</v>
+        <v>990.62300000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.175000</v>
+        <v>-108.175</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>25494.108590</v>
+        <v>25494.10859</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.081697</v>
+        <v>7.0816970000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.827000</v>
+        <v>998.827</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.635000</v>
+        <v>-123.63500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>25505.012638</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.084726</v>
+        <v>7.0847259999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.894000</v>
+        <v>-194.89400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>25516.376975</v>
+        <v>25516.376974999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.087882</v>
+        <v>7.0878819999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.786000</v>
+        <v>-310.786</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>25528.577071</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.091271</v>
+        <v>7.0912709999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1210.440000</v>
+        <v>1210.44</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.463000</v>
+        <v>-493.46300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>25539.062497</v>
+        <v>25539.062496999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.094184</v>
+        <v>7.0941840000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="BV5" s="1">
-        <v>-693.814000</v>
+        <v>-693.81399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>25549.795923</v>
+        <v>25549.795923000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.097166</v>
+        <v>7.0971659999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-907.709000</v>
+        <v>-907.70899999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>25561.059572</v>
+        <v>25561.059571999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.100294</v>
+        <v>7.1002939999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1820.140000</v>
+        <v>1820.14</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1415.340000</v>
+        <v>-1415.34</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>25389.664023</v>
+        <v>25389.664023000001</v>
       </c>
       <c r="B6" s="1">
-        <v>7.052684</v>
+        <v>7.0526840000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>899.990000</v>
+        <v>899.99</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.309000</v>
+        <v>-202.309</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>25399.775504</v>
+        <v>25399.775504000001</v>
       </c>
       <c r="G6" s="1">
-        <v>7.055493</v>
+        <v>7.0554930000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>917.215000</v>
+        <v>917.21500000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.877000</v>
+        <v>-170.87700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>25410.304045</v>
+        <v>25410.304045000001</v>
       </c>
       <c r="L6" s="1">
-        <v>7.058418</v>
+        <v>7.0584179999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>940.538000</v>
+        <v>940.53800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.862000</v>
+        <v>-121.86199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>25420.515709</v>
+        <v>25420.515708999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.061254</v>
+        <v>7.0612539999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.420000</v>
+        <v>947.42</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.117000</v>
+        <v>-105.117</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>25430.417500</v>
+        <v>25430.4175</v>
       </c>
       <c r="V6" s="1">
-        <v>7.064005</v>
+        <v>7.0640049999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>954.156000</v>
+        <v>954.15599999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.896100</v>
+        <v>-88.896100000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>25440.580867</v>
+        <v>25440.580867000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.066828</v>
+        <v>7.0668280000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.868000</v>
+        <v>960.86800000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.137200</v>
+        <v>-77.137200000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>25451.483925</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.069857</v>
+        <v>7.0698569999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.737000</v>
+        <v>965.73699999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.945700</v>
+        <v>-74.945700000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>25461.647415</v>
+        <v>25461.647414999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.072680</v>
+        <v>7.0726800000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.840000</v>
+        <v>972.84</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.126600</v>
+        <v>-79.126599999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>25472.283129</v>
+        <v>25472.283128999999</v>
       </c>
       <c r="AP6" s="1">
         <v>7.075634</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.868000</v>
+        <v>980.86800000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.705200</v>
+        <v>-90.705200000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>25483.314652</v>
+        <v>25483.314652000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.078699</v>
+        <v>7.0786990000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.617000</v>
+        <v>990.61699999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.180000</v>
+        <v>-108.18</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>25494.469180</v>
+        <v>25494.46918</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.081797</v>
+        <v>7.0817969999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.827000</v>
+        <v>998.827</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.638000</v>
+        <v>-123.63800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>25505.692654</v>
+        <v>25505.692653999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.084915</v>
+        <v>7.0849149999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.120000</v>
+        <v>1037.1199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.914000</v>
+        <v>-194.91399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>25517.061454</v>
+        <v>25517.061453999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.088073</v>
+        <v>7.0880729999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1103.200000</v>
+        <v>1103.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.774000</v>
+        <v>-310.774</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>25528.690655</v>
+        <v>25528.690654999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.091303</v>
+        <v>7.0913029999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1210.480000</v>
+        <v>1210.48</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-493.492000</v>
+        <v>-493.49200000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>25539.501952</v>
+        <v>25539.501951999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.094306</v>
+        <v>7.0943059999999996</v>
       </c>
       <c r="BU6" s="1">
-        <v>1331.520000</v>
+        <v>1331.52</v>
       </c>
       <c r="BV6" s="1">
-        <v>-693.923000</v>
+        <v>-693.923</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>25550.206611</v>
+        <v>25550.206611000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.097280</v>
+        <v>7.0972799999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1466.350000</v>
+        <v>1466.35</v>
       </c>
       <c r="CA6" s="1">
-        <v>-907.734000</v>
+        <v>-907.73400000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>25561.577891</v>
+        <v>25561.577891000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.100438</v>
+        <v>7.1004379999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>1820.880000</v>
+        <v>1820.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1414.860000</v>
+        <v>-1414.86</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>25390.020646</v>
+        <v>25390.020646000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.052784</v>
+        <v>7.0527839999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>899.738000</v>
+        <v>899.73800000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.191000</v>
+        <v>-202.191</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>25400.119193</v>
+        <v>25400.119192999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.055589</v>
+        <v>7.0555890000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>917.199000</v>
+        <v>917.19899999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.694000</v>
+        <v>-170.69399999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>25410.648764</v>
+        <v>25410.648764000001</v>
       </c>
       <c r="L7" s="1">
-        <v>7.058514</v>
+        <v>7.0585139999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>940.928000</v>
+        <v>940.928</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.927000</v>
+        <v>-121.92700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>25420.864397</v>
+        <v>25420.864397000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.061351</v>
+        <v>7.0613510000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>947.452000</v>
+        <v>947.452</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.068000</v>
+        <v>-105.068</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>25431.101792</v>
+        <v>25431.101792000001</v>
       </c>
       <c r="V7" s="1">
-        <v>7.064195</v>
+        <v>7.0641949999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>954.192000</v>
+        <v>954.19200000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.871300</v>
+        <v>-88.871300000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>25441.280690</v>
+        <v>25441.28069</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.067022</v>
+        <v>7.0670219999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.851000</v>
+        <v>960.851</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.293900</v>
+        <v>-77.293899999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>25451.827620</v>
+        <v>25451.82762</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.069952</v>
+        <v>7.0699519999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.699000</v>
+        <v>965.69899999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.969300</v>
+        <v>-74.969300000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>25461.992631</v>
+        <v>25461.992631000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.072776</v>
+        <v>7.0727760000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.863000</v>
+        <v>972.86300000000006</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.108100</v>
+        <v>-79.108099999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>25472.664585</v>
+        <v>25472.664584999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.075740</v>
+        <v>7.0757399999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.880000</v>
+        <v>980.88</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.724900</v>
+        <v>-90.724900000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>25483.986730</v>
+        <v>25483.986730000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.078885</v>
+        <v>7.0788849999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.186000</v>
+        <v>-108.18600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>25495.132331</v>
+        <v>25495.132331000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.081981</v>
+        <v>7.0819809999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.830000</v>
+        <v>998.83</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.652000</v>
+        <v>-123.652</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>25506.133132</v>
+        <v>25506.133131999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.085037</v>
+        <v>7.0850369999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.160000</v>
+        <v>1037.1600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.917000</v>
+        <v>-194.917</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>25517.500910</v>
+        <v>25517.500909999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.088195</v>
+        <v>7.0881949999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.789000</v>
+        <v>-310.78899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>25529.112750</v>
+        <v>25529.11275</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.091420</v>
+        <v>7.0914200000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1210.460000</v>
+        <v>1210.46</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.514000</v>
+        <v>-493.51400000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>25539.913632</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.094420</v>
+        <v>7.0944200000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="BV7" s="1">
-        <v>-694.008000</v>
+        <v>-694.00800000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>25550.644083</v>
+        <v>25550.644082999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.097401</v>
+        <v>7.0974009999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1466.390000</v>
+        <v>1466.39</v>
       </c>
       <c r="CA7" s="1">
-        <v>-907.755000</v>
+        <v>-907.755</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>25562.130435</v>
+        <v>25562.130434999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.100592</v>
+        <v>7.1005919999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1821.250000</v>
+        <v>1821.25</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1414.320000</v>
+        <v>-1414.32</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>25390.362887</v>
+        <v>25390.362886999999</v>
       </c>
       <c r="B8" s="1">
-        <v>7.052879</v>
+        <v>7.0528789999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>900.017000</v>
+        <v>900.01700000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.149000</v>
+        <v>-202.149</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>25400.467384</v>
       </c>
       <c r="G8" s="1">
-        <v>7.055685</v>
+        <v>7.0556850000000004</v>
       </c>
       <c r="H8" s="1">
-        <v>917.083000</v>
+        <v>917.08299999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.846000</v>
+        <v>-170.846</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>25411.340683</v>
+        <v>25411.340682999999</v>
       </c>
       <c r="L8" s="1">
-        <v>7.058706</v>
+        <v>7.0587059999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.639000</v>
+        <v>940.63900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.765000</v>
+        <v>-121.765</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>25421.561741</v>
+        <v>25421.561741000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.061545</v>
+        <v>7.0615449999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>947.654000</v>
+        <v>947.654</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.447000</v>
+        <v>-104.447</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>25431.444527</v>
       </c>
       <c r="V8" s="1">
-        <v>7.064290</v>
+        <v>7.0642899999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>954.170000</v>
+        <v>954.17</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.784000</v>
+        <v>-88.784000000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>25441.628882</v>
+        <v>25441.628882000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.067119</v>
+        <v>7.0671189999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.910000</v>
+        <v>960.91</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.200700</v>
+        <v>-77.200699999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>25452.169364</v>
+        <v>25452.169364000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.070047</v>
+        <v>7.0700469999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.678000</v>
+        <v>965.678</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.968900</v>
+        <v>-74.968900000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>25462.340364</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.072872</v>
+        <v>7.0728720000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.871000</v>
+        <v>972.87099999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.118400</v>
+        <v>-79.118399999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>25473.324729</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.075924</v>
+        <v>7.0759239999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.875000</v>
+        <v>980.875</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.713400</v>
+        <v>-90.713399999999993</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>25484.444537</v>
+        <v>25484.444536999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.079012</v>
+        <v>7.0790119999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.625000</v>
+        <v>990.625</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.179000</v>
+        <v>-108.179</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>25495.571290</v>
+        <v>25495.57129</v>
       </c>
       <c r="AZ8" s="1">
         <v>7.082103</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.813000</v>
+        <v>998.81299999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.651000</v>
+        <v>-123.651</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>25506.499180</v>
+        <v>25506.499179999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.085139</v>
+        <v>7.0851389999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.160000</v>
+        <v>1037.1600000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.880000</v>
+        <v>-194.88</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>25517.877870</v>
+        <v>25517.87787</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.088299</v>
+        <v>7.0882990000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1103.190000</v>
+        <v>1103.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.777000</v>
+        <v>-310.77699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>25529.509054</v>
+        <v>25529.509053999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.091530</v>
+        <v>7.0915299999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1210.440000</v>
+        <v>1210.44</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.498000</v>
+        <v>-493.49799999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>25540.330769</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.094536</v>
+        <v>7.0945359999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>1331.570000</v>
+        <v>1331.57</v>
       </c>
       <c r="BV8" s="1">
-        <v>-694.051000</v>
+        <v>-694.05100000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>25551.059233</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.097516</v>
+        <v>7.0975159999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1466.340000</v>
+        <v>1466.34</v>
       </c>
       <c r="CA8" s="1">
-        <v>-907.836000</v>
+        <v>-907.83600000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>25562.647762</v>
+        <v>25562.647762000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.100735</v>
+        <v>7.1007350000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1820.290000</v>
+        <v>1820.29</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1415.440000</v>
+        <v>-1415.44</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>25391.033973</v>
+        <v>25391.033973000001</v>
       </c>
       <c r="B9" s="1">
-        <v>7.053065</v>
+        <v>7.0530650000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>899.939000</v>
+        <v>899.93899999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.240000</v>
+        <v>-202.24</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>25401.153567</v>
+        <v>25401.153567000001</v>
       </c>
       <c r="G9" s="1">
-        <v>7.055876</v>
+        <v>7.0558759999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>916.724000</v>
+        <v>916.72400000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.367000</v>
+        <v>-172.36699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>25411.685405</v>
@@ -2310,1493 +2726,1493 @@
         <v>7.058802</v>
       </c>
       <c r="M9" s="1">
-        <v>940.555000</v>
+        <v>940.55499999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.825000</v>
+        <v>-121.825</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>25421.909932</v>
+        <v>25421.909931999999</v>
       </c>
       <c r="Q9" s="1">
         <v>7.061642</v>
       </c>
       <c r="R9" s="1">
-        <v>947.743000</v>
+        <v>947.74300000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.216000</v>
+        <v>-104.21599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>25431.789281</v>
+        <v>25431.789281000001</v>
       </c>
       <c r="V9" s="1">
-        <v>7.064386</v>
+        <v>7.0643859999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>954.216000</v>
+        <v>954.21600000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.858800</v>
+        <v>-88.858800000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>25441.976579</v>
+        <v>25441.976578999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.067216</v>
+        <v>7.0672160000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.940000</v>
+        <v>960.94</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.377800</v>
+        <v>-77.377799999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>25452.817180</v>
+        <v>25452.817179999998</v>
       </c>
       <c r="AF9" s="1">
         <v>7.070227</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.718000</v>
+        <v>965.71799999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.943600</v>
+        <v>-74.943600000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>25462.999045</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.073055</v>
+        <v>7.0730550000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.749000</v>
+        <v>972.74900000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.241900</v>
+        <v>-79.241900000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>25473.742360</v>
+        <v>25473.74236</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.076040</v>
+        <v>7.0760399999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.853000</v>
+        <v>980.85299999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.722800</v>
+        <v>-90.722800000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>25484.809096</v>
+        <v>25484.809096000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.079114</v>
+        <v>7.0791139999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.595000</v>
+        <v>990.59500000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.159000</v>
+        <v>-108.15900000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>25495.933867</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.082204</v>
+        <v>7.0822039999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.817000</v>
+        <v>998.81700000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.624000</v>
+        <v>-123.624</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>25506.858747</v>
+        <v>25506.858746999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.085239</v>
+        <v>7.0852389999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.130000</v>
+        <v>1037.1300000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.881000</v>
+        <v>-194.881</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>25518.255821</v>
+        <v>25518.255820999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.088404</v>
+        <v>7.0884039999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.773000</v>
+        <v>-310.77300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>25529.934125</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.091648</v>
+        <v>7.0916480000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1210.490000</v>
+        <v>1210.49</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-493.486000</v>
+        <v>-493.48599999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>25540.747439</v>
+        <v>25540.747438999999</v>
       </c>
       <c r="BT9" s="1">
         <v>7.094652</v>
       </c>
       <c r="BU9" s="1">
-        <v>1331.500000</v>
+        <v>1331.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-694.132000</v>
+        <v>-694.13199999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>25551.507618</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.097641</v>
+        <v>7.0976410000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1466.380000</v>
+        <v>1466.38</v>
       </c>
       <c r="CA9" s="1">
-        <v>-907.818000</v>
+        <v>-907.81799999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>25563.177985</v>
+        <v>25563.177984999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.100883</v>
+        <v>7.1008829999999996</v>
       </c>
       <c r="CE9" s="1">
-        <v>1821.960000</v>
+        <v>1821.96</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1415.610000</v>
+        <v>-1415.61</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>25391.384645</v>
+        <v>25391.384644999998</v>
       </c>
       <c r="B10" s="1">
-        <v>7.053162</v>
+        <v>7.0531620000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>899.891000</v>
+        <v>899.89099999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.333000</v>
+        <v>-202.333</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>25401.497607</v>
+        <v>25401.497607000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.055972</v>
+        <v>7.0559719999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>917.186000</v>
+        <v>917.18600000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-172.222000</v>
+        <v>-172.22200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>25412.034089</v>
+        <v>25412.034089000001</v>
       </c>
       <c r="L10" s="1">
-        <v>7.058898</v>
+        <v>7.0588980000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.815000</v>
+        <v>940.81500000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.792000</v>
+        <v>-121.792</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>25422.257627</v>
+        <v>25422.257626999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.061738</v>
+        <v>7.0617380000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>947.720000</v>
+        <v>947.72</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.230000</v>
+        <v>-104.23</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>25432.437518</v>
+        <v>25432.437517999999</v>
       </c>
       <c r="V10" s="1">
-        <v>7.064566</v>
+        <v>7.0645660000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.176000</v>
+        <v>954.17600000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.891700</v>
+        <v>-88.8917</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>25442.632288</v>
+        <v>25442.632288000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.067398</v>
+        <v>7.0673979999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.994000</v>
+        <v>960.99400000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.406400</v>
+        <v>-77.406400000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>25453.198783</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.070333</v>
+        <v>7.0703329999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.717000</v>
+        <v>965.71699999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.980700</v>
+        <v>-74.980699999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>25463.536181</v>
+        <v>25463.536180999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.073204</v>
+        <v>7.0732039999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.775000</v>
+        <v>972.77499999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.299400</v>
+        <v>-79.299400000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>25474.132710</v>
+        <v>25474.132710000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.076148</v>
+        <v>7.0761479999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.880000</v>
+        <v>980.88</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.745500</v>
+        <v>-90.745500000000007</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>25485.173160</v>
+        <v>25485.173159999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.079215</v>
+        <v>7.0792149999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.177000</v>
+        <v>-108.17700000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>25496.288543</v>
+        <v>25496.288542999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.082302</v>
+        <v>7.0823020000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.818000</v>
+        <v>998.81799999999998</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.616000</v>
+        <v>-123.616</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>25507.281835</v>
+        <v>25507.281835000002</v>
       </c>
       <c r="BE10" s="1">
         <v>7.085356</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.913000</v>
+        <v>-194.91300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>25518.960664</v>
+        <v>25518.960663999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.088600</v>
+        <v>7.0885999999999996</v>
       </c>
       <c r="BK10" s="1">
-        <v>1103.170000</v>
+        <v>1103.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.782000</v>
+        <v>-310.78199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>25530.330429</v>
+        <v>25530.330429000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.091758</v>
+        <v>7.0917579999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1210.440000</v>
+        <v>1210.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.534000</v>
+        <v>-493.53399999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>25541.162094</v>
+        <v>25541.162093999999</v>
       </c>
       <c r="BT10" s="1">
         <v>7.094767</v>
       </c>
       <c r="BU10" s="1">
-        <v>1331.480000</v>
+        <v>1331.48</v>
       </c>
       <c r="BV10" s="1">
-        <v>-694.199000</v>
+        <v>-694.19899999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>25551.926736</v>
+        <v>25551.926736000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.097757</v>
+        <v>7.0977569999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1466.340000</v>
+        <v>1466.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-907.839000</v>
+        <v>-907.83900000000006</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>25563.718624</v>
+        <v>25563.718624000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.101033</v>
+        <v>7.1010330000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1820.960000</v>
+        <v>1820.96</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1414.560000</v>
+        <v>-1414.56</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>25391.727876</v>
+        <v>25391.727876000001</v>
       </c>
       <c r="B11" s="1">
-        <v>7.053258</v>
+        <v>7.0532579999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>899.780000</v>
+        <v>899.78</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.340000</v>
+        <v>-202.34</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>25401.844278</v>
       </c>
       <c r="G11" s="1">
-        <v>7.056068</v>
+        <v>7.0560679999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>916.891000</v>
+        <v>916.89099999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-172.448000</v>
+        <v>-172.44800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>25412.688312</v>
+        <v>25412.688311999998</v>
       </c>
       <c r="L11" s="1">
-        <v>7.059080</v>
+        <v>7.0590799999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>940.657000</v>
+        <v>940.65700000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.794000</v>
+        <v>-121.794</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>25422.928749</v>
+        <v>25422.928748999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.061925</v>
+        <v>7.0619249999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>947.713000</v>
+        <v>947.71299999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.232000</v>
+        <v>-104.232</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>25432.820927</v>
+        <v>25432.820927000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.064672</v>
+        <v>7.0646719999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>954.126000</v>
+        <v>954.12599999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.854800</v>
+        <v>-88.854799999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>25443.023172</v>
+        <v>25443.023172000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.067506</v>
+        <v>7.0675059999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.963000</v>
+        <v>960.96299999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.481400</v>
+        <v>-77.481399999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>25453.543282</v>
+        <v>25453.543281999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.070429</v>
+        <v>7.0704289999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.726000</v>
+        <v>965.726</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.947100</v>
+        <v>-74.947100000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>25463.737556</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.073260</v>
+        <v>7.0732600000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.778000</v>
+        <v>972.77800000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.345900</v>
+        <v>-79.3459</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>25474.491816</v>
+        <v>25474.491816000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.076248</v>
+        <v>7.0762479999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.868000</v>
+        <v>980.86800000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.720400</v>
+        <v>-90.720399999999998</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>25485.595262</v>
+        <v>25485.595261999999</v>
       </c>
       <c r="AU11" s="1">
         <v>7.079332</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.637000</v>
+        <v>990.63699999999994</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.166000</v>
+        <v>-108.166</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>25496.699690</v>
+        <v>25496.699690000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.082417</v>
+        <v>7.0824170000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.823000</v>
+        <v>998.82299999999998</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.638000</v>
+        <v>-123.63800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>25507.571034</v>
+        <v>25507.571034000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.085436</v>
+        <v>7.0854359999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1037.130000</v>
+        <v>1037.1300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.892000</v>
+        <v>-194.892</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>25519.406540</v>
+        <v>25519.40654</v>
       </c>
       <c r="BJ11" s="1">
         <v>7.088724</v>
       </c>
       <c r="BK11" s="1">
-        <v>1103.210000</v>
+        <v>1103.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.792000</v>
+        <v>-310.79199999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>25530.751532</v>
+        <v>25530.751531999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.091875</v>
+        <v>7.0918749999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1210.500000</v>
+        <v>1210.5</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-493.520000</v>
+        <v>-493.52</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>25541.597581</v>
+        <v>25541.597581000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.094888</v>
+        <v>7.0948880000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1331.430000</v>
+        <v>1331.43</v>
       </c>
       <c r="BV11" s="1">
-        <v>-694.299000</v>
+        <v>-694.29899999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>25552.351840</v>
+        <v>25552.351839999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.097876</v>
+        <v>7.0978760000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1466.420000</v>
+        <v>1466.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-907.795000</v>
+        <v>-907.79499999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>25564.257281</v>
+        <v>25564.257280999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.101183</v>
+        <v>7.1011829999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1820.880000</v>
+        <v>1820.88</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1415.880000</v>
+        <v>-1415.88</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>25392.375652</v>
+        <v>25392.375651999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.053438</v>
+        <v>7.0534379999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>899.825000</v>
+        <v>899.82500000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.500000</v>
+        <v>-202.5</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>25402.501975</v>
+        <v>25402.501974999999</v>
       </c>
       <c r="G12" s="1">
-        <v>7.056251</v>
+        <v>7.0562509999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>917.394000</v>
+        <v>917.39400000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-172.705000</v>
+        <v>-172.70500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>25413.068915</v>
       </c>
       <c r="L12" s="1">
-        <v>7.059186</v>
+        <v>7.0591860000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>940.540000</v>
+        <v>940.54</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.647000</v>
+        <v>-121.64700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>25423.303723</v>
+        <v>25423.303723000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.062029</v>
+        <v>7.0620289999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>947.708000</v>
+        <v>947.70799999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.164000</v>
+        <v>-104.164</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>25433.163197</v>
+        <v>25433.163197000002</v>
       </c>
       <c r="V12" s="1">
-        <v>7.064768</v>
+        <v>7.0647679999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>954.225000</v>
+        <v>954.22500000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.830700</v>
+        <v>-88.830699999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>25443.367856</v>
+        <v>25443.367856000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.067602</v>
+        <v>7.0676019999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.011000</v>
+        <v>961.01099999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.370000</v>
+        <v>-77.37</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>25453.887506</v>
+        <v>25453.887505999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.070524</v>
+        <v>7.0705239999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.702000</v>
+        <v>965.702</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.929400</v>
+        <v>-74.929400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>25464.320356</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.073422</v>
+        <v>7.0734219999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.769000</v>
+        <v>972.76900000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.309100</v>
+        <v>-79.309100000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>25474.906007</v>
+        <v>25474.906007000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.076363</v>
+        <v>7.0763629999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.856000</v>
+        <v>980.85599999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.703700</v>
+        <v>-90.703699999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>25485.899799</v>
+        <v>25485.899798999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.079417</v>
+        <v>7.0794170000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.618000</v>
+        <v>990.61800000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.177000</v>
+        <v>-108.17700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>25497.007706</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.082502</v>
+        <v>7.0825019999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.814000</v>
+        <v>998.81399999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.627000</v>
+        <v>-123.627</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>25507.942010</v>
+        <v>25507.942009999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.085539</v>
+        <v>7.0855389999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.887000</v>
+        <v>-194.887</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>25519.794410</v>
+        <v>25519.794409999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>7.088832</v>
       </c>
       <c r="BK12" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.808000</v>
+        <v>-310.80799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>25531.147871</v>
+        <v>25531.147871000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.091986</v>
+        <v>7.0919860000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-493.516000</v>
+        <v>-493.51600000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>25542.027581</v>
+        <v>25542.027580999998</v>
       </c>
       <c r="BT12" s="1">
         <v>7.095008</v>
       </c>
       <c r="BU12" s="1">
-        <v>1331.410000</v>
+        <v>1331.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-694.366000</v>
+        <v>-694.36599999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>25552.798703</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.098000</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1466.280000</v>
+        <v>1466.28</v>
       </c>
       <c r="CA12" s="1">
-        <v>-907.924000</v>
+        <v>-907.92399999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>25564.797951</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.101333</v>
+        <v>7.1013330000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.130000</v>
+        <v>1822.13</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1414.910000</v>
+        <v>-1414.91</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>25392.753603</v>
+        <v>25392.753603000001</v>
       </c>
       <c r="B13" s="1">
-        <v>7.053543</v>
+        <v>7.0535430000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>899.985000</v>
+        <v>899.98500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.183000</v>
+        <v>-202.18299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>25402.876454</v>
+        <v>25402.876454000001</v>
       </c>
       <c r="G13" s="1">
-        <v>7.056355</v>
+        <v>7.0563549999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>916.848000</v>
+        <v>916.84799999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-172.225000</v>
+        <v>-172.22499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>25413.414488</v>
+        <v>25413.414487999999</v>
       </c>
       <c r="L13" s="1">
-        <v>7.059282</v>
+        <v>7.0592819999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>940.762000</v>
+        <v>940.76199999999994</v>
       </c>
       <c r="N13" s="1">
-        <v>-122.052000</v>
+        <v>-122.05200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>25423.654361</v>
+        <v>25423.654361000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.062126</v>
+        <v>7.0621260000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>947.766000</v>
+        <v>947.76599999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.188000</v>
+        <v>-104.188</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>25433.507388</v>
+        <v>25433.507388000002</v>
       </c>
       <c r="V13" s="1">
-        <v>7.064863</v>
+        <v>7.0648629999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.234000</v>
+        <v>954.23400000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.853800</v>
+        <v>-88.853800000000007</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>25443.718062</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.067699</v>
+        <v>7.0676990000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.052000</v>
+        <v>961.05200000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.327700</v>
+        <v>-77.327699999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>25454.304642</v>
+        <v>25454.304641999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.070640</v>
+        <v>7.07064</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.712000</v>
+        <v>965.71199999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.970300</v>
+        <v>-74.970299999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>25464.433939</v>
+        <v>25464.433938999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.073454</v>
+        <v>7.0734539999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.796000</v>
+        <v>972.79600000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.348700</v>
+        <v>-79.348699999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>25475.209525</v>
+        <v>25475.209524999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.076447</v>
+        <v>7.0764469999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.877000</v>
+        <v>980.87699999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.715700</v>
+        <v>-90.715699999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>25486.266872</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.079519</v>
+        <v>7.0795190000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.623000</v>
+        <v>990.62300000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.166000</v>
+        <v>-108.166</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>25497.366343</v>
+        <v>25497.366343000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.082602</v>
+        <v>7.0826019999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.824000</v>
+        <v>998.82399999999996</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.634000</v>
+        <v>-123.634</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>25508.304090</v>
+        <v>25508.304090000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.085640</v>
+        <v>7.0856399999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.140000</v>
+        <v>1037.1400000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.922000</v>
+        <v>-194.922</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>25520.545849</v>
+        <v>25520.545848999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.089041</v>
+        <v>7.0890409999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1103.190000</v>
+        <v>1103.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.773000</v>
+        <v>-310.77300000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>25531.575097</v>
+        <v>25531.575097000001</v>
       </c>
       <c r="BO13" s="1">
         <v>7.092104</v>
       </c>
       <c r="BP13" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.504000</v>
+        <v>-493.50400000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>25542.440846</v>
+        <v>25542.440846000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.095122</v>
+        <v>7.0951219999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1331.340000</v>
+        <v>1331.34</v>
       </c>
       <c r="BV13" s="1">
-        <v>-694.333000</v>
+        <v>-694.33299999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>25553.232735</v>
+        <v>25553.232735000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.098120</v>
+        <v>7.0981199999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1466.430000</v>
+        <v>1466.43</v>
       </c>
       <c r="CA13" s="1">
-        <v>-907.743000</v>
+        <v>-907.74300000000005</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>25565.335582</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.101482</v>
+        <v>7.1014819999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1820.300000</v>
+        <v>1820.3</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1415.100000</v>
+        <v>-1415.1</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>25393.101333</v>
+        <v>25393.101332999999</v>
       </c>
       <c r="B14" s="1">
-        <v>7.053639</v>
+        <v>7.0536390000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>899.947000</v>
+        <v>899.947</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.191000</v>
+        <v>-202.191</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>25403.223653</v>
+        <v>25403.223653000001</v>
       </c>
       <c r="G14" s="1">
         <v>7.056451</v>
       </c>
       <c r="H14" s="1">
-        <v>917.188000</v>
+        <v>917.18799999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-172.658000</v>
+        <v>-172.65799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>25413.758678</v>
+        <v>25413.758677999998</v>
       </c>
       <c r="L14" s="1">
-        <v>7.059377</v>
+        <v>7.0593769999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>940.679000</v>
+        <v>940.67899999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.769000</v>
+        <v>-121.76900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>25424.003049</v>
+        <v>25424.003048999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.062223</v>
+        <v>7.0622230000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>947.750000</v>
+        <v>947.75</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.214000</v>
+        <v>-104.214</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>25433.939900</v>
+        <v>25433.939900000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.064983</v>
+        <v>7.0649829999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>954.154000</v>
+        <v>954.154</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.803100</v>
+        <v>-88.803100000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>25444.137647</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.067816</v>
+        <v>7.0678159999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.101000</v>
+        <v>961.101</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.321900</v>
+        <v>-77.321899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>25454.598799</v>
+        <v>25454.598798999999</v>
       </c>
       <c r="AF14" s="1">
         <v>7.070722</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.700000</v>
+        <v>965.7</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.953900</v>
+        <v>-74.953900000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>25464.784148</v>
+        <v>25464.784147999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.073551</v>
+        <v>7.0735510000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.829000</v>
+        <v>972.82899999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.367300</v>
+        <v>-79.3673</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>25475.569654</v>
+        <v>25475.569653999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.076547</v>
+        <v>7.0765469999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.867000</v>
+        <v>980.86699999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.718300</v>
+        <v>-90.718299999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>25486.632886</v>
+        <v>25486.632885999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.079620</v>
+        <v>7.0796200000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.650000</v>
+        <v>990.65</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.170000</v>
+        <v>-108.17</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>25497.723432</v>
+        <v>25497.723431999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.082701</v>
+        <v>7.0827010000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.850000</v>
+        <v>998.85</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.534000</v>
+        <v>-123.53400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>25509.025310</v>
+        <v>25509.025310000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.085840</v>
+        <v>7.0858400000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.170000</v>
+        <v>1037.17</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.900000</v>
+        <v>-194.9</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>25520.945129</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.089151</v>
+        <v>7.0891510000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1103.200000</v>
+        <v>1103.2</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.811000</v>
+        <v>-310.81099999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>25531.965242</v>
+        <v>25531.965241999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.092213</v>
+        <v>7.0922130000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-493.489000</v>
+        <v>-493.48899999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>25542.868300</v>
+        <v>25542.868299999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.095241</v>
+        <v>7.0952409999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="BV14" s="1">
-        <v>-694.389000</v>
+        <v>-694.38900000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>25553.652318</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.098237</v>
+        <v>7.0982370000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1466.350000</v>
+        <v>1466.35</v>
       </c>
       <c r="CA14" s="1">
-        <v>-907.710000</v>
+        <v>-907.71</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>25566.183245</v>
@@ -3805,377 +4221,377 @@
         <v>7.101718</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.870000</v>
+        <v>1821.87</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1414.650000</v>
+        <v>-1414.65</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>25393.430641</v>
+        <v>25393.430640999999</v>
       </c>
       <c r="B15" s="1">
         <v>7.053731</v>
       </c>
       <c r="C15" s="1">
-        <v>900.163000</v>
+        <v>900.16300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.316000</v>
+        <v>-202.316</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>25403.570356</v>
       </c>
       <c r="G15" s="1">
-        <v>7.056547</v>
+        <v>7.0565470000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.096000</v>
+        <v>917.096</v>
       </c>
       <c r="I15" s="1">
-        <v>-172.126000</v>
+        <v>-172.126</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>25414.179782</v>
+        <v>25414.179781999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.059494</v>
+        <v>7.0594939999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.679000</v>
+        <v>940.67899999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.849000</v>
+        <v>-121.849</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>25424.453950</v>
+        <v>25424.453949999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.062348</v>
+        <v>7.0623480000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.700000</v>
+        <v>947.7</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.245000</v>
+        <v>-104.245</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>25434.220140</v>
+        <v>25434.220140000001</v>
       </c>
       <c r="V15" s="1">
         <v>7.065061</v>
       </c>
       <c r="W15" s="1">
-        <v>954.214000</v>
+        <v>954.21400000000006</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.773200</v>
+        <v>-88.773200000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>25444.424334</v>
+        <v>25444.424333999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.067896</v>
+        <v>7.0678960000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.096000</v>
+        <v>961.096</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.394200</v>
+        <v>-77.394199999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>25454.942032</v>
+        <v>25454.942031999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.070817</v>
+        <v>7.0708169999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.692000</v>
+        <v>965.69200000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.923000</v>
+        <v>-74.923000000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25465.131050</v>
+        <v>25465.13105</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.073648</v>
+        <v>7.0736480000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.835000</v>
+        <v>972.83500000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.386100</v>
+        <v>-79.386099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>25475.930087</v>
+        <v>25475.930087000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.076647</v>
+        <v>7.0766470000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.874000</v>
+        <v>980.87400000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.715900</v>
+        <v>-90.715900000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>25487.360053</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.079822</v>
+        <v>7.0798220000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.641000</v>
+        <v>990.64099999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.152000</v>
+        <v>-108.152</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>25498.441188</v>
+        <v>25498.441188000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.082900</v>
+        <v>7.0829000000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.850000</v>
+        <v>998.85</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.525000</v>
+        <v>-123.52500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>25509.414137</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.085948</v>
+        <v>7.0859480000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.911000</v>
+        <v>-194.911</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>25521.320133</v>
+        <v>25521.320133000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.089256</v>
+        <v>7.0892559999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1103.200000</v>
+        <v>1103.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.791000</v>
+        <v>-310.791</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>25532.385851</v>
+        <v>25532.385850999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.092329</v>
+        <v>7.0923290000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1210.410000</v>
+        <v>1210.4100000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-493.510000</v>
+        <v>-493.51</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>25543.602875</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.095445</v>
+        <v>7.0954449999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1331.170000</v>
+        <v>1331.17</v>
       </c>
       <c r="BV15" s="1">
-        <v>-694.308000</v>
+        <v>-694.30799999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>25554.377010</v>
+        <v>25554.37701</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.098438</v>
+        <v>7.0984379999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1466.430000</v>
+        <v>1466.43</v>
       </c>
       <c r="CA15" s="1">
-        <v>-907.818000</v>
+        <v>-907.81799999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>25566.417853</v>
+        <v>25566.417852999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.101783</v>
+        <v>7.1017830000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1822.000000</v>
+        <v>1822</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1414.880000</v>
+        <v>-1414.88</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>25393.850754</v>
+        <v>25393.850753999999</v>
       </c>
       <c r="B16" s="1">
-        <v>7.053847</v>
+        <v>7.0538470000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>900.019000</v>
+        <v>900.01900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.244000</v>
+        <v>-202.244</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>25403.986499</v>
+        <v>25403.986498999999</v>
       </c>
       <c r="G16" s="1">
-        <v>7.056663</v>
+        <v>7.0566630000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>916.683000</v>
+        <v>916.68299999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-172.598000</v>
+        <v>-172.59800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>25414.473911</v>
+        <v>25414.473911000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.059576</v>
+        <v>7.0595759999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>940.499000</v>
+        <v>940.49900000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.664000</v>
+        <v>-121.664</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>25424.709352</v>
+        <v>25424.709352000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.062419</v>
+        <v>7.0624190000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>947.750000</v>
+        <v>947.75</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.241000</v>
+        <v>-104.241</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>25434.563372</v>
+        <v>25434.563372000001</v>
       </c>
       <c r="V16" s="1">
         <v>7.065156</v>
       </c>
       <c r="W16" s="1">
-        <v>954.173000</v>
+        <v>954.173</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.834800</v>
+        <v>-88.834800000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>25444.845971</v>
+        <v>25444.845970999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.068013</v>
+        <v>7.0680129999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.072000</v>
+        <v>961.072</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.464600</v>
+        <v>-77.464600000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>25455.284743</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.070912</v>
+        <v>7.0709119999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.620000</v>
+        <v>965.62</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.768100</v>
+        <v>-74.768100000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>25465.829714</v>
@@ -4184,467 +4600,467 @@
         <v>7.073842</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.853000</v>
+        <v>972.85299999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.357100</v>
+        <v>-79.357100000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>25476.653913</v>
+        <v>25476.653912999998</v>
       </c>
       <c r="AP16" s="1">
         <v>7.076848</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.872000</v>
+        <v>980.87199999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.697700</v>
+        <v>-90.697699999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>25487.748898</v>
+        <v>25487.748898000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.079930</v>
+        <v>7.0799300000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.172000</v>
+        <v>-108.172</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>25498.801767</v>
+        <v>25498.801767000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.083000</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.876000</v>
+        <v>998.87599999999998</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.538000</v>
+        <v>-123.538</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>25509.774729</v>
+        <v>25509.774729000001</v>
       </c>
       <c r="BE16" s="1">
         <v>7.086049</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.919000</v>
+        <v>-194.91900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>25522.008552</v>
+        <v>25522.008551999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.089447</v>
+        <v>7.0894469999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1103.190000</v>
+        <v>1103.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.792000</v>
+        <v>-310.79199999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>25533.091661</v>
+        <v>25533.091660999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.092525</v>
+        <v>7.0925250000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1210.490000</v>
+        <v>1210.49</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.506000</v>
+        <v>-493.50599999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>25543.740624</v>
+        <v>25543.740623999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.095484</v>
+        <v>7.0954839999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1331.060000</v>
+        <v>1331.06</v>
       </c>
       <c r="BV16" s="1">
-        <v>-694.357000</v>
+        <v>-694.35699999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>25554.499982</v>
+        <v>25554.499982000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.098472</v>
+        <v>7.0984720000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1466.470000</v>
+        <v>1466.47</v>
       </c>
       <c r="CA16" s="1">
-        <v>-907.742000</v>
+        <v>-907.74199999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>25566.935678</v>
+        <v>25566.935678000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.101927</v>
+        <v>7.1019269999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1820.860000</v>
+        <v>1820.86</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1414.550000</v>
+        <v>-1414.55</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>25394.145378</v>
+        <v>25394.145378000001</v>
       </c>
       <c r="B17" s="1">
-        <v>7.053929</v>
+        <v>7.0539290000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>899.870000</v>
+        <v>899.87</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.502000</v>
+        <v>-202.50200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>25404.266275</v>
+        <v>25404.266275000002</v>
       </c>
       <c r="G17" s="1">
-        <v>7.056741</v>
+        <v>7.0567409999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>917.201000</v>
+        <v>917.20100000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-172.573000</v>
+        <v>-172.57300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>25414.819653</v>
+        <v>25414.819652999999</v>
       </c>
       <c r="L17" s="1">
-        <v>7.059672</v>
+        <v>7.0596719999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.514000</v>
+        <v>940.51400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.785000</v>
+        <v>-121.785</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>25425.053116</v>
+        <v>25425.053115999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.062515</v>
+        <v>7.0625150000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>947.713000</v>
+        <v>947.71299999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.237000</v>
+        <v>-104.23699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>25434.907131</v>
       </c>
       <c r="V17" s="1">
-        <v>7.065252</v>
+        <v>7.0652520000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.132000</v>
+        <v>954.13199999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.900900</v>
+        <v>-88.900899999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>25445.129677</v>
+        <v>25445.129677000001</v>
       </c>
       <c r="AA17" s="1">
         <v>7.068092</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.122000</v>
+        <v>961.12199999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.380300</v>
+        <v>-77.380300000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>25455.972222</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.071103</v>
+        <v>7.0711029999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.763000</v>
+        <v>965.76300000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.621400</v>
+        <v>-74.621399999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>25466.174897</v>
+        <v>25466.174897000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.073937</v>
+        <v>7.0739369999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.872000</v>
+        <v>972.87199999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.373100</v>
+        <v>-79.373099999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>25477.039763</v>
+        <v>25477.039763000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.076955</v>
+        <v>7.0769549999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.857000</v>
+        <v>980.85699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.713900</v>
+        <v>-90.713899999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>25488.114932</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.080032</v>
+        <v>7.0800320000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.656000</v>
+        <v>990.65599999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.174000</v>
+        <v>-108.17400000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>25499.163318</v>
+        <v>25499.163317999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.083101</v>
+        <v>7.0831010000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.860000</v>
+        <v>998.86</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.532000</v>
+        <v>-123.532</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>25510.441352</v>
+        <v>25510.441352000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.086234</v>
+        <v>7.0862340000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.120000</v>
+        <v>1037.1199999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.911000</v>
+        <v>-194.911</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>25522.477271</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.089577</v>
+        <v>7.0895770000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1103.190000</v>
+        <v>1103.19</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.762000</v>
+        <v>-310.762</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>25533.203257</v>
+        <v>25533.203257000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.092556</v>
+        <v>7.0925560000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1210.500000</v>
+        <v>1210.5</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.489000</v>
+        <v>-493.48899999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>25544.154458</v>
+        <v>25544.154458000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.095598</v>
+        <v>7.0955979999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1330.990000</v>
+        <v>1330.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-694.241000</v>
+        <v>-694.24099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>25554.945884</v>
+        <v>25554.945884000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.098596</v>
+        <v>7.0985959999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1466.440000</v>
+        <v>1466.44</v>
       </c>
       <c r="CA17" s="1">
-        <v>-907.795000</v>
+        <v>-907.79499999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>25567.453036</v>
+        <v>25567.453035999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.102070</v>
+        <v>7.1020700000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>1820.610000</v>
+        <v>1820.61</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1415.820000</v>
+        <v>-1415.82</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>25394.486624</v>
+        <v>25394.486624000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.054024</v>
+        <v>7.0540240000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>899.957000</v>
+        <v>899.95699999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.279000</v>
+        <v>-202.279</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>25404.610003</v>
+        <v>25404.610003000002</v>
       </c>
       <c r="G18" s="1">
-        <v>7.056836</v>
+        <v>7.0568359999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>917.349000</v>
+        <v>917.34900000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-172.341000</v>
+        <v>-172.34100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>25415.163846</v>
+        <v>25415.163845999999</v>
       </c>
       <c r="L18" s="1">
         <v>7.059768</v>
       </c>
       <c r="M18" s="1">
-        <v>940.566000</v>
+        <v>940.56600000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-122.035000</v>
+        <v>-122.035</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>25425.407756</v>
+        <v>25425.407756000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.062613</v>
+        <v>7.0626129999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>947.712000</v>
+        <v>947.71199999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.189000</v>
+        <v>-104.18899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>25435.592106</v>
@@ -4653,754 +5069,754 @@
         <v>7.065442</v>
       </c>
       <c r="W18" s="1">
-        <v>954.108000</v>
+        <v>954.10799999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.857100</v>
+        <v>-88.857100000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>25445.829502</v>
+        <v>25445.829502000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.068286</v>
+        <v>7.0682859999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.951000</v>
+        <v>960.95100000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.411300</v>
+        <v>-77.411299999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>25456.318435</v>
+        <v>25456.318435000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.071200</v>
+        <v>7.0712000000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.754000</v>
+        <v>965.75400000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.598800</v>
+        <v>-74.598799999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>25466.523618</v>
+        <v>25466.523617999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.074034</v>
+        <v>7.0740340000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.837000</v>
+        <v>972.83699999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.391000</v>
+        <v>-79.391000000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>25477.398371</v>
+        <v>25477.398370999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.077055</v>
+        <v>7.0770549999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.840000</v>
+        <v>980.84</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.713000</v>
+        <v>-90.712999999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>25488.793459</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.080220</v>
+        <v>7.0802199999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.661000</v>
+        <v>990.66099999999994</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.149000</v>
+        <v>-108.149</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>25499.825973</v>
+        <v>25499.825972999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.083285</v>
+        <v>7.0832850000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.839000</v>
+        <v>998.83900000000006</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.556000</v>
+        <v>-123.556</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>25510.892216</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.086359</v>
+        <v>7.0863589999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.160000</v>
+        <v>1037.1600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.924000</v>
+        <v>-194.92400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>25522.865175</v>
+        <v>25522.865174999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.089685</v>
+        <v>7.0896850000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1103.170000</v>
+        <v>1103.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.782000</v>
+        <v>-310.78199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>25533.628359</v>
+        <v>25533.628358999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.092675</v>
+        <v>7.0926749999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.516000</v>
+        <v>-493.51600000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>25544.573051</v>
+        <v>25544.573050999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.095715</v>
+        <v>7.0957150000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1330.940000</v>
+        <v>1330.94</v>
       </c>
       <c r="BV18" s="1">
-        <v>-694.241000</v>
+        <v>-694.24099999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>25555.376946</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.098716</v>
+        <v>7.0987159999999996</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-907.783000</v>
+        <v>-907.78300000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>25567.972316</v>
+        <v>25567.972315999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.102215</v>
+        <v>7.1022150000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1821.850000</v>
+        <v>1821.85</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1416.000000</v>
+        <v>-1416</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>25394.828367</v>
+        <v>25394.828366999998</v>
       </c>
       <c r="B19" s="1">
         <v>7.054119</v>
       </c>
       <c r="C19" s="1">
-        <v>899.756000</v>
+        <v>899.75599999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.344000</v>
+        <v>-202.34399999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>25404.953735</v>
+        <v>25404.953734999999</v>
       </c>
       <c r="G19" s="1">
-        <v>7.056932</v>
+        <v>7.0569319999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>917.635000</v>
+        <v>917.63499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.576000</v>
+        <v>-172.57599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>25415.856260</v>
+        <v>25415.85626</v>
       </c>
       <c r="L19" s="1">
-        <v>7.059960</v>
+        <v>7.0599600000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.849000</v>
+        <v>940.84900000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.951000</v>
+        <v>-121.95099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>25426.102118</v>
+        <v>25426.102117999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.062806</v>
+        <v>7.0628060000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.774000</v>
+        <v>947.774</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.190000</v>
+        <v>-104.19</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>25435.937290</v>
+        <v>25435.937290000002</v>
       </c>
       <c r="V19" s="1">
-        <v>7.065538</v>
+        <v>7.0655380000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.202000</v>
+        <v>954.202</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.880000</v>
+        <v>-88.88</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>25446.175212</v>
+        <v>25446.175211999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.068382</v>
+        <v>7.0683819999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.130000</v>
+        <v>961.13</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.402700</v>
+        <v>-77.402699999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>25456.660174</v>
+        <v>25456.660174000001</v>
       </c>
       <c r="AF19" s="1">
         <v>7.071294</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.799000</v>
+        <v>965.79899999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.547300</v>
+        <v>-74.547300000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>25467.187729</v>
+        <v>25467.187729000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.074219</v>
+        <v>7.0742190000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.861000</v>
+        <v>972.86099999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.371200</v>
+        <v>-79.371200000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>25478.073922</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.077243</v>
+        <v>7.0772430000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.878000</v>
+        <v>980.87800000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.701100</v>
+        <v>-90.701099999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>25489.243331</v>
+        <v>25489.243331000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.080345</v>
+        <v>7.0803450000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.655000</v>
+        <v>990.65499999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.164000</v>
+        <v>-108.164</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>25500.270885</v>
+        <v>25500.270885000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.083409</v>
+        <v>7.0834089999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.849000</v>
+        <v>998.84900000000005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.541000</v>
+        <v>-123.541</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>25511.252806</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.086459</v>
+        <v>7.0864589999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.160000</v>
+        <v>1037.1600000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.912000</v>
+        <v>-194.91200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>25523.242598</v>
+        <v>25523.242598000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.089790</v>
+        <v>7.0897899999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.831000</v>
+        <v>-310.83100000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>25534.022151</v>
+        <v>25534.022151000001</v>
       </c>
       <c r="BO19" s="1">
         <v>7.092784</v>
       </c>
       <c r="BP19" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-493.523000</v>
+        <v>-493.52300000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>25544.996634</v>
+        <v>25544.996633999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.095832</v>
+        <v>7.0958319999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>1330.910000</v>
+        <v>1330.91</v>
       </c>
       <c r="BV19" s="1">
-        <v>-694.212000</v>
+        <v>-694.21199999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>25555.818875</v>
+        <v>25555.818875000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.098839</v>
+        <v>7.0988389999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-907.767000</v>
+        <v>-907.76700000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>25568.489179</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.102358</v>
+        <v>7.1023579999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.660000</v>
+        <v>1821.66</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1416.070000</v>
+        <v>-1416.07</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>25395.509871</v>
+        <v>25395.509870999998</v>
       </c>
       <c r="B20" s="1">
-        <v>7.054308</v>
+        <v>7.0543079999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>899.693000</v>
+        <v>899.69299999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.276000</v>
+        <v>-202.27600000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>25405.642674</v>
+        <v>25405.642673999999</v>
       </c>
       <c r="G20" s="1">
-        <v>7.057123</v>
+        <v>7.0571229999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>917.150000</v>
+        <v>917.15</v>
       </c>
       <c r="I20" s="1">
-        <v>-172.063000</v>
+        <v>-172.06299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>25416.199524</v>
       </c>
       <c r="L20" s="1">
-        <v>7.060055</v>
+        <v>7.0600550000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>940.586000</v>
+        <v>940.58600000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.012000</v>
+        <v>-122.012</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>25426.455270</v>
+        <v>25426.455269999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.062904</v>
+        <v>7.0629039999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>947.744000</v>
+        <v>947.74400000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.203000</v>
+        <v>-104.203</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>25436.280521</v>
+        <v>25436.280521000001</v>
       </c>
       <c r="V20" s="1">
-        <v>7.065633</v>
+        <v>7.0656330000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>954.197000</v>
+        <v>954.197</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.850700</v>
+        <v>-88.850700000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>25446.824475</v>
+        <v>25446.824475000001</v>
       </c>
       <c r="AA20" s="1">
         <v>7.068562</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.015000</v>
+        <v>961.01499999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.341500</v>
+        <v>-77.341499999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>25457.315152</v>
+        <v>25457.315151999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.071476</v>
+        <v>7.0714759999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.817000</v>
+        <v>965.81700000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.621100</v>
+        <v>-74.621099999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>25467.570145</v>
+        <v>25467.570145000002</v>
       </c>
       <c r="AK20" s="1">
         <v>7.074325</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.851000</v>
+        <v>972.851</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.356600</v>
+        <v>-79.3566</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>25478.508451</v>
+        <v>25478.508451000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.077363</v>
+        <v>7.0773630000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.868000</v>
+        <v>980.86800000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.723200</v>
+        <v>-90.723200000000006</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>25489.607394</v>
+        <v>25489.607393999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.080446</v>
+        <v>7.0804460000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.647000</v>
+        <v>990.64700000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.161000</v>
+        <v>-108.161</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>25500.628501</v>
+        <v>25500.628500999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.083508</v>
+        <v>7.0835080000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.853000</v>
+        <v>998.85299999999995</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.511000</v>
+        <v>-123.511</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>25511.614390</v>
+        <v>25511.614389999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.086560</v>
+        <v>7.0865600000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.130000</v>
+        <v>1037.1300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.910000</v>
+        <v>-194.91</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>25523.657253</v>
+        <v>25523.657253000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.089905</v>
+        <v>7.0899049999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.807000</v>
+        <v>-310.80700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>25534.443785</v>
+        <v>25534.443784999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.092901</v>
+        <v>7.0929010000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1210.500000</v>
+        <v>1210.5</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.507000</v>
+        <v>-493.50700000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>25545.411788</v>
+        <v>25545.411788000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.095948</v>
+        <v>7.0959479999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1330.970000</v>
+        <v>1330.97</v>
       </c>
       <c r="BV20" s="1">
-        <v>-694.080000</v>
+        <v>-694.08</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>25556.221099</v>
+        <v>25556.221098999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.098950</v>
+        <v>7.0989500000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA20" s="1">
-        <v>-907.771000</v>
+        <v>-907.77099999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>25569.040202</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.102511</v>
+        <v>7.1025109999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1821.050000</v>
+        <v>1821.05</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1415.860000</v>
+        <v>-1415.86</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>25395.853103</v>
+        <v>25395.853103000001</v>
       </c>
       <c r="B21" s="1">
-        <v>7.054404</v>
+        <v>7.0544039999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>899.831000</v>
+        <v>899.83100000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.098000</v>
+        <v>-202.09800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>25405.989842</v>
+        <v>25405.989841999999</v>
       </c>
       <c r="G21" s="1">
-        <v>7.057219</v>
+        <v>7.0572189999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.935000</v>
+        <v>916.93499999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-172.249000</v>
+        <v>-172.249</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>25416.549699</v>
+        <v>25416.549698999999</v>
       </c>
       <c r="L21" s="1">
-        <v>7.060153</v>
+        <v>7.0601529999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>940.622000</v>
+        <v>940.62199999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.988000</v>
+        <v>-121.988</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>25426.829781</v>
@@ -5409,73 +5825,73 @@
         <v>7.063008</v>
       </c>
       <c r="R21" s="1">
-        <v>947.718000</v>
+        <v>947.71799999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.240000</v>
+        <v>-104.24</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>25436.935240</v>
+        <v>25436.935239999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.065815</v>
+        <v>7.0658149999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>954.115000</v>
+        <v>954.11500000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.898600</v>
+        <v>-88.898600000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>25447.221803</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.068673</v>
+        <v>7.0686730000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.209000</v>
+        <v>961.20899999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.451400</v>
+        <v>-77.451400000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>25457.689340</v>
+        <v>25457.689340000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.071580</v>
+        <v>7.07158</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.776000</v>
+        <v>965.77599999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.599400</v>
+        <v>-74.599400000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>25467.921312</v>
+        <v>25467.921311999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.074423</v>
+        <v>7.0744230000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.859000</v>
+        <v>972.85900000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.363000</v>
+        <v>-79.363</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>25478.870993</v>
@@ -5484,1403 +5900,1403 @@
         <v>7.077464</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.872000</v>
+        <v>980.87199999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.731400</v>
+        <v>-90.731399999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>25489.970003</v>
+        <v>25489.970002999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.080547</v>
+        <v>7.0805470000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.636000</v>
+        <v>990.63599999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.162000</v>
+        <v>-108.16200000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>25501.064515</v>
+        <v>25501.064514999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.083629</v>
+        <v>7.0836290000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.874000</v>
+        <v>998.87400000000002</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.531000</v>
+        <v>-123.53100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>25512.036491</v>
+        <v>25512.036490999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.086677</v>
+        <v>7.0866769999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.150000</v>
+        <v>1037.1500000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.901000</v>
+        <v>-194.90100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>25523.992548</v>
+        <v>25523.992547999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.089998</v>
+        <v>7.0899979999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1103.200000</v>
+        <v>1103.2</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.782000</v>
+        <v>-310.78199999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>25534.842549</v>
+        <v>25534.842549000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.093012</v>
+        <v>7.0930119999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1210.470000</v>
+        <v>1210.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.496000</v>
+        <v>-493.49599999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>25545.826478</v>
+        <v>25545.826477999999</v>
       </c>
       <c r="BT21" s="1">
         <v>7.096063</v>
       </c>
       <c r="BU21" s="1">
-        <v>1330.850000</v>
+        <v>1330.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-693.989000</v>
+        <v>-693.98900000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>25556.649146</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.099069</v>
+        <v>7.0990690000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1466.360000</v>
+        <v>1466.36</v>
       </c>
       <c r="CA21" s="1">
-        <v>-907.865000</v>
+        <v>-907.86500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>25569.569433</v>
+        <v>25569.569433000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.102658</v>
+        <v>7.1026579999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.050000</v>
+        <v>1822.05</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1415.820000</v>
+        <v>-1415.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>25396.195837</v>
+        <v>25396.195836999999</v>
       </c>
       <c r="B22" s="1">
-        <v>7.054499</v>
+        <v>7.0544989999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>899.629000</v>
+        <v>899.62900000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.213000</v>
+        <v>-202.21299999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>25406.342043</v>
+        <v>25406.342043000001</v>
       </c>
       <c r="G22" s="1">
-        <v>7.057317</v>
+        <v>7.0573170000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>917.049000</v>
+        <v>917.04899999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-172.558000</v>
+        <v>-172.55799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>25417.206866</v>
       </c>
       <c r="L22" s="1">
-        <v>7.060335</v>
+        <v>7.0603350000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>940.762000</v>
+        <v>940.76199999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.836000</v>
+        <v>-121.836</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>25427.281604</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.063134</v>
+        <v>7.0631339999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>947.712000</v>
+        <v>947.71199999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.207000</v>
+        <v>-104.20699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>25437.309225</v>
+        <v>25437.309225000001</v>
       </c>
       <c r="V22" s="1">
-        <v>7.065919</v>
+        <v>7.0659190000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.218000</v>
+        <v>954.21799999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.892900</v>
+        <v>-88.892899999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>25447.569993</v>
+        <v>25447.569993000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.068769</v>
+        <v>7.0687689999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.117000</v>
+        <v>961.11699999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.394300</v>
+        <v>-77.394300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>25458.035549</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.071677</v>
+        <v>7.0716770000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.778000</v>
+        <v>965.77800000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.605600</v>
+        <v>-74.605599999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>25468.268543</v>
+        <v>25468.268542999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.074519</v>
+        <v>7.0745189999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.847000</v>
+        <v>972.84699999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.361700</v>
+        <v>-79.361699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>25479.231586</v>
+        <v>25479.231586000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.077564</v>
+        <v>7.0775639999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.856000</v>
+        <v>980.85599999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.703300</v>
+        <v>-90.703299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>25490.386609</v>
+        <v>25490.386609000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.080663</v>
+        <v>7.0806630000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.660000</v>
+        <v>990.66</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.167000</v>
+        <v>-108.167</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>25501.559490</v>
+        <v>25501.55949</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.083767</v>
+        <v>7.0837669999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.860000</v>
+        <v>998.86</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.533000</v>
+        <v>-123.533</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>25512.336068</v>
+        <v>25512.336068000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.086760</v>
+        <v>7.0867599999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.140000</v>
+        <v>1037.1400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.936000</v>
+        <v>-194.93600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>25524.376963</v>
+        <v>25524.376962999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.090105</v>
+        <v>7.0901050000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1103.180000</v>
+        <v>1103.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.817000</v>
+        <v>-310.81700000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>25535.265623</v>
+        <v>25535.265622999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.093129</v>
+        <v>7.0931290000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1210.460000</v>
+        <v>1210.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.510000</v>
+        <v>-493.51</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>25546.239113</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.096178</v>
+        <v>7.0961780000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1331.020000</v>
+        <v>1331.02</v>
       </c>
       <c r="BV22" s="1">
-        <v>-693.984000</v>
+        <v>-693.98400000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>25557.064795</v>
+        <v>25557.064794999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.099185</v>
+        <v>7.0991850000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1466.420000</v>
+        <v>1466.42</v>
       </c>
       <c r="CA22" s="1">
-        <v>-907.796000</v>
+        <v>-907.79600000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>25570.087257</v>
+        <v>25570.087256999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.102802</v>
+        <v>7.1028019999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1820.810000</v>
+        <v>1820.81</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1414.720000</v>
+        <v>-1414.72</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>25396.842157</v>
+        <v>25396.842156999999</v>
       </c>
       <c r="B23" s="1">
         <v>7.054678</v>
       </c>
       <c r="C23" s="1">
-        <v>899.713000</v>
+        <v>899.71299999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.050000</v>
+        <v>-202.05</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>25406.992789</v>
       </c>
       <c r="G23" s="1">
-        <v>7.057498</v>
+        <v>7.0574979999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>917.212000</v>
+        <v>917.21199999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-172.201000</v>
+        <v>-172.20099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>25417.585324</v>
       </c>
       <c r="L23" s="1">
-        <v>7.060440</v>
+        <v>7.0604399999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>940.821000</v>
+        <v>940.82100000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.823000</v>
+        <v>-121.82299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>25427.517702</v>
+        <v>25427.517702000001</v>
       </c>
       <c r="Q23" s="1">
         <v>7.063199</v>
       </c>
       <c r="R23" s="1">
-        <v>947.693000</v>
+        <v>947.69299999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.198000</v>
+        <v>-104.19799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>25437.655463</v>
+        <v>25437.655462999999</v>
       </c>
       <c r="V23" s="1">
-        <v>7.066015</v>
+        <v>7.0660150000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>954.147000</v>
+        <v>954.14700000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.944700</v>
+        <v>-88.944699999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>25447.918153</v>
+        <v>25447.918152999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.068866</v>
+        <v>7.0688659999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.116000</v>
+        <v>961.11599999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.441200</v>
+        <v>-77.441199999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>25458.382252</v>
+        <v>25458.382251999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.071773</v>
+        <v>7.0717730000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.798000</v>
+        <v>965.798</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.579200</v>
+        <v>-74.5792</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>25468.689614</v>
+        <v>25468.689613999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.074636</v>
+        <v>7.0746359999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.857000</v>
+        <v>972.85699999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.385300</v>
+        <v>-79.385300000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>25479.659631</v>
+        <v>25479.659630999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.077683</v>
+        <v>7.0776830000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.872000</v>
+        <v>980.87199999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.721000</v>
+        <v>-90.721000000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>25490.701073</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.080750</v>
+        <v>7.0807500000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.611000</v>
+        <v>990.61099999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.182000</v>
+        <v>-108.182</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>25501.704338</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.083807</v>
+        <v>7.0838070000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.866000</v>
+        <v>998.86599999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.512000</v>
+        <v>-123.512</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>25512.695210</v>
+        <v>25512.695210000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.086860</v>
+        <v>7.0868599999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.140000</v>
+        <v>1037.1400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.921000</v>
+        <v>-194.92099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>25524.767829</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.090213</v>
+        <v>7.0902130000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1103.210000</v>
+        <v>1103.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.802000</v>
+        <v>-310.80200000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>25535.674667</v>
+        <v>25535.674666999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.093243</v>
+        <v>7.0932430000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1210.480000</v>
+        <v>1210.48</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.508000</v>
+        <v>-493.50799999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>25546.657121</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.096294</v>
+        <v>7.0962940000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>1331.030000</v>
+        <v>1331.03</v>
       </c>
       <c r="BV23" s="1">
-        <v>-693.893000</v>
+        <v>-693.89300000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>25557.518168</v>
+        <v>25557.518167999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.099311</v>
+        <v>7.0993110000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1466.440000</v>
+        <v>1466.44</v>
       </c>
       <c r="CA23" s="1">
-        <v>-907.831000</v>
+        <v>-907.83100000000002</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>25570.626432</v>
+        <v>25570.626432000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.102952</v>
+        <v>7.1029520000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1821.150000</v>
+        <v>1821.15</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1415.990000</v>
+        <v>-1415.99</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>25397.212141</v>
       </c>
       <c r="B24" s="1">
-        <v>7.054781</v>
+        <v>7.0547810000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>899.737000</v>
+        <v>899.73699999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.248000</v>
+        <v>-202.24799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>25407.374209</v>
+        <v>25407.374209000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.057604</v>
+        <v>7.0576040000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>917.304000</v>
+        <v>917.30399999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-172.259000</v>
+        <v>-172.25899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>25417.931057</v>
+        <v>25417.931057000002</v>
       </c>
       <c r="L24" s="1">
-        <v>7.060536</v>
+        <v>7.0605359999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.700000</v>
+        <v>940.7</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.845000</v>
+        <v>-121.845</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>25427.867876</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.063297</v>
+        <v>7.0632970000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>947.725000</v>
+        <v>947.72500000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.194000</v>
+        <v>-104.194</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>25438.004616</v>
+        <v>25438.004615999998</v>
       </c>
       <c r="V24" s="1">
-        <v>7.066112</v>
+        <v>7.0661120000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>954.198000</v>
+        <v>954.19799999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.870400</v>
+        <v>-88.870400000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>25448.332814</v>
+        <v>25448.332814000001</v>
       </c>
       <c r="AA24" s="1">
         <v>7.068981</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.111000</v>
+        <v>961.11099999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.415100</v>
+        <v>-77.415099999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>25458.789495</v>
+        <v>25458.789495000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.071886</v>
+        <v>7.0718860000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.762000</v>
+        <v>965.76199999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.609100</v>
+        <v>-74.609099999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>25468.961950</v>
+        <v>25468.961950000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.074712</v>
+        <v>7.0747119999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.843000</v>
+        <v>972.84299999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.384300</v>
+        <v>-79.384299999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>25479.951313</v>
+        <v>25479.951313000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.077764</v>
+        <v>7.0777640000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.856000</v>
+        <v>980.85599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.696600</v>
+        <v>-90.696600000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>25491.067648</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.080852</v>
+        <v>7.0808520000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.646000</v>
+        <v>990.64599999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.171000</v>
+        <v>-108.17100000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>25502.064914</v>
+        <v>25502.064913999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>7.083907</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.868000</v>
+        <v>998.86800000000005</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.526000</v>
+        <v>-123.526</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>25513.059236</v>
+        <v>25513.059236000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.086961</v>
+        <v>7.0869609999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.250000</v>
+        <v>1037.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.966000</v>
+        <v>-194.96600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>25525.511795</v>
+        <v>25525.511794999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.090420</v>
+        <v>7.0904199999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1103.200000</v>
+        <v>1103.2</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.822000</v>
+        <v>-310.822</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>25536.100885</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.093361</v>
+        <v>7.0933609999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1210.500000</v>
+        <v>1210.5</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-493.477000</v>
+        <v>-493.47699999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>25547.093224</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.096415</v>
+        <v>7.0964150000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1331.040000</v>
+        <v>1331.04</v>
       </c>
       <c r="BV24" s="1">
-        <v>-693.825000</v>
+        <v>-693.82500000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>25557.966520</v>
+        <v>25557.966520000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.099435</v>
+        <v>7.0994349999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1466.420000</v>
+        <v>1466.42</v>
       </c>
       <c r="CA24" s="1">
-        <v>-907.788000</v>
+        <v>-907.78800000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>25571.170054</v>
+        <v>25571.170053999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.103103</v>
+        <v>7.1031029999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1822.220000</v>
+        <v>1822.22</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1414.760000</v>
+        <v>-1414.76</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>25397.563804</v>
+        <v>25397.563804000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.054879</v>
+        <v>7.0548789999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>899.712000</v>
+        <v>899.71199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.262000</v>
+        <v>-202.262</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>25407.836239</v>
       </c>
       <c r="G25" s="1">
-        <v>7.057732</v>
+        <v>7.0577319999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>916.847000</v>
+        <v>916.84699999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.415000</v>
+        <v>-172.41499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>25418.274785</v>
+        <v>25418.274785000001</v>
       </c>
       <c r="L25" s="1">
         <v>7.060632</v>
       </c>
       <c r="M25" s="1">
-        <v>940.552000</v>
+        <v>940.55200000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.803000</v>
+        <v>-121.803</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>25428.288021</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.063413</v>
+        <v>7.0634129999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>947.758000</v>
+        <v>947.75800000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.212000</v>
+        <v>-104.212</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>25438.423238</v>
+        <v>25438.423237999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.066229</v>
+        <v>7.0662289999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.129000</v>
+        <v>954.12900000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.839900</v>
+        <v>-88.8399</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>25448.631897</v>
+        <v>25448.631896999999</v>
       </c>
       <c r="AA25" s="1">
         <v>7.069064</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.093000</v>
+        <v>961.09299999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.428800</v>
+        <v>-77.428799999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>25459.085579</v>
+        <v>25459.085578999999</v>
       </c>
       <c r="AF25" s="1">
         <v>7.071968</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.783000</v>
+        <v>965.78300000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.637000</v>
+        <v>-74.637</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>25469.313093</v>
+        <v>25469.313093000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.074809</v>
+        <v>7.0748090000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.837000</v>
+        <v>972.83699999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.368600</v>
+        <v>-79.368600000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>25480.310879</v>
+        <v>25480.310879000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.077864</v>
+        <v>7.0778639999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.868000</v>
+        <v>980.86800000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.710000</v>
+        <v>-90.71</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>25491.429728</v>
+        <v>25491.429727999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.080953</v>
+        <v>7.0809530000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.646000</v>
+        <v>990.64599999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.169000</v>
+        <v>-108.169</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>25502.782658</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.084106</v>
+        <v>7.0841060000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.845000</v>
+        <v>998.84500000000003</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.555000</v>
+        <v>-123.55500000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>25514.005602</v>
+        <v>25514.005602000001</v>
       </c>
       <c r="BE25" s="1">
         <v>7.087224</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.160000</v>
+        <v>1037.1600000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.900000</v>
+        <v>-194.9</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>25525.916035</v>
+        <v>25525.916034999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.090532</v>
+        <v>7.0905319999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1103.200000</v>
+        <v>1103.2</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.816000</v>
+        <v>-310.81599999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>25536.477350</v>
+        <v>25536.477350000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.093466</v>
+        <v>7.0934660000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1210.500000</v>
+        <v>1210.5</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-493.528000</v>
+        <v>-493.52800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>25547.523254</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.096534</v>
+        <v>7.0965340000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1331.100000</v>
+        <v>1331.1</v>
       </c>
       <c r="BV25" s="1">
-        <v>-693.779000</v>
+        <v>-693.779</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>25558.727384</v>
+        <v>25558.727384000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.099646</v>
+        <v>7.0996459999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1466.450000</v>
+        <v>1466.45</v>
       </c>
       <c r="CA25" s="1">
-        <v>-907.746000</v>
+        <v>-907.74599999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>25572.007797</v>
+        <v>25572.007796999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.103335</v>
+        <v>7.1033350000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1821.650000</v>
+        <v>1821.65</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1416.420000</v>
+        <v>-1416.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>25397.904556</v>
+        <v>25397.904556000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.054973</v>
+        <v>7.0549730000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>899.729000</v>
+        <v>899.72900000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.330000</v>
+        <v>-202.33</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>25408.117679</v>
+        <v>25408.117678999999</v>
       </c>
       <c r="G26" s="1">
-        <v>7.057810</v>
+        <v>7.0578099999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>916.716000</v>
+        <v>916.71600000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-172.335000</v>
+        <v>-172.33500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>25418.696352</v>
+        <v>25418.696351999999</v>
       </c>
       <c r="L26" s="1">
-        <v>7.060749</v>
+        <v>7.0607490000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>940.605000</v>
+        <v>940.60500000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.862000</v>
+        <v>-121.86199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>25428.562276</v>
+        <v>25428.562276000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.063490</v>
+        <v>7.0634899999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>947.751000</v>
+        <v>947.75099999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.231000</v>
+        <v>-104.23099999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>25438.707942</v>
+        <v>25438.707942000001</v>
       </c>
       <c r="V26" s="1">
-        <v>7.066308</v>
+        <v>7.0663080000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>954.212000</v>
+        <v>954.21199999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.862800</v>
+        <v>-88.862799999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>25448.981080</v>
+        <v>25448.981080000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.069161</v>
+        <v>7.0691610000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.102000</v>
+        <v>961.10199999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.387900</v>
+        <v>-77.387900000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>25459.428810</v>
+        <v>25459.428810000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.072064</v>
+        <v>7.0720640000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.751000</v>
+        <v>965.75099999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.566800</v>
+        <v>-74.566800000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>25469.663269</v>
+        <v>25469.663269000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.074906</v>
+        <v>7.0749060000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.860000</v>
+        <v>972.86</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.387400</v>
+        <v>-79.3874</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>25480.671471</v>
+        <v>25480.671471000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.077964</v>
+        <v>7.0779639999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.874000</v>
+        <v>980.87400000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.703400</v>
+        <v>-90.703400000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>25492.159845</v>
+        <v>25492.159844999998</v>
       </c>
       <c r="AU26" s="1">
         <v>7.081156</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.630000</v>
+        <v>990.63</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.183000</v>
+        <v>-108.18300000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>25503.139779</v>
+        <v>25503.139779000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.084205</v>
+        <v>7.0842049999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.855000</v>
+        <v>998.85500000000002</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.535000</v>
+        <v>-123.535</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>25514.410833</v>
+        <v>25514.410833000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.087336</v>
+        <v>7.0873359999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.140000</v>
+        <v>1037.1400000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.901000</v>
+        <v>-194.90100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>25526.292995</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.090637</v>
+        <v>7.0906370000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1103.220000</v>
+        <v>1103.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.811000</v>
+        <v>-310.81099999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>25536.896996</v>
+        <v>25536.896995999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.093582</v>
+        <v>7.0935819999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1210.510000</v>
+        <v>1210.51</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-493.496000</v>
+        <v>-493.49599999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>25548.238517</v>
+        <v>25548.238517000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.096733</v>
+        <v>7.0967330000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1331.190000</v>
+        <v>1331.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-693.794000</v>
+        <v>-693.79399999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>25558.872716</v>
+        <v>25558.872716000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.099687</v>
+        <v>7.0996870000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1466.380000</v>
+        <v>1466.38</v>
       </c>
       <c r="CA26" s="1">
-        <v>-907.887000</v>
+        <v>-907.88699999999994</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>25572.246378</v>
@@ -6889,15 +7305,16 @@
         <v>7.103402</v>
       </c>
       <c r="CE26" s="1">
-        <v>1821.900000</v>
+        <v>1821.9</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1416.100000</v>
+        <v>-1416.1</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>